--- a/intrastat/Intrastat Submission Sample.xlsx
+++ b/intrastat/Intrastat Submission Sample.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>595</v>
+        <v>0.595</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>678</v>
+        <v>0.678</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>704</v>
+        <v>0.704</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>844</v>
+        <v>0.844</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>461</v>
+        <v>0.461</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>589</v>
+        <v>0.589</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>533</v>
+        <v>0.533</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>406</v>
+        <v>0.406</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
